--- a/sources/iiif/40CM/40CM.xlsx
+++ b/sources/iiif/40CM/40CM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\iiif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\iiif\40CM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28834599-7BE3-436D-BA4D-A37792325D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E48CB-F0A4-46D7-B1BA-0CD6CF7A815D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABDC5E25-0FA4-41BE-9150-9BDB7AE3A285}"/>
   </bookViews>
@@ -66,13 +66,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>40CM_1</t>
-  </si>
-  <si>
-    <t>40CM_2</t>
-  </si>
-  <si>
-    <t>40CM_3</t>
+    <t>40CM_00001</t>
+  </si>
+  <si>
+    <t>40CM_00002</t>
+  </si>
+  <si>
+    <t>40CM_00003</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.05" customHeight="1" x14ac:dyDescent="0.3"/>
